--- a/examples/sources/data/unsolved/to_schedule/2019-02-14.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-02-14.xlsx
@@ -2385,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>43510</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" s="2">
         <v>43510</v>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" s="2">
         <v>43510</v>
@@ -4739,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" s="2">
         <v>43510</v>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137" s="2">
         <v>43510</v>
